--- a/结果/DT分类/标准差/DT_BE_biaozhuncha.xlsx
+++ b/结果/DT分类/标准差/DT_BE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\DT分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47290D07-DE00-412C-A5C0-CAFFEF02E1CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4796A6-9153-4D24-80AB-4C2E568416F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="11016" yWindow="2376" windowWidth="19668" windowHeight="9708" firstSheet="2" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="BE_biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4741E87B-C3D3-4C4C-BF4E-36BCF345D7CA}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C38"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -428,6 +428,171 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>95</v>
+      </c>
+      <c r="B2">
+        <v>96.103899999999996</v>
+      </c>
+      <c r="C2">
+        <v>93.975899999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>95.625</v>
+      </c>
+      <c r="B4">
+        <v>94.805199999999999</v>
+      </c>
+      <c r="C4">
+        <v>96.385499999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>96.25</v>
+      </c>
+      <c r="B6">
+        <v>97.777799999999999</v>
+      </c>
+      <c r="C6">
+        <v>94.285700000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>93.75</v>
+      </c>
+      <c r="B8">
+        <v>89.473699999999994</v>
+      </c>
+      <c r="C8">
+        <v>97.619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>96.25</v>
+      </c>
+      <c r="B10">
+        <v>95</v>
+      </c>
+      <c r="C10">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>95</v>
+      </c>
+      <c r="B15">
+        <v>92.045500000000004</v>
+      </c>
+      <c r="C15">
+        <v>98.611099999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>97.5</v>
+      </c>
+      <c r="B17">
+        <v>96.341499999999996</v>
+      </c>
+      <c r="C17">
+        <v>98.7179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>95.625</v>
+      </c>
+      <c r="B19">
+        <v>96.202500000000001</v>
+      </c>
+      <c r="C19">
+        <v>95.061700000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>95</v>
+      </c>
+      <c r="B21">
+        <v>91.764700000000005</v>
+      </c>
+      <c r="C21">
+        <v>98.666700000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>93.125</v>
+      </c>
+      <c r="B23">
+        <v>95.454499999999996</v>
+      </c>
+      <c r="C23">
+        <v>91.489400000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>95</v>
+      </c>
+      <c r="B28">
+        <v>95.2941</v>
+      </c>
+      <c r="C28">
+        <v>94.666700000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>95</v>
+      </c>
+      <c r="B30">
+        <v>93.846199999999996</v>
+      </c>
+      <c r="C30">
+        <v>95.789500000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>95.625</v>
+      </c>
+      <c r="B32">
+        <v>95.238100000000003</v>
+      </c>
+      <c r="C32">
+        <v>96.052599999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>93.75</v>
+      </c>
+      <c r="B34">
+        <v>96.551699999999997</v>
+      </c>
+      <c r="C34">
+        <v>90.411000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>95.625</v>
+      </c>
+      <c r="B36">
+        <v>92.405100000000004</v>
+      </c>
+      <c r="C36">
+        <v>98.7654</v>
       </c>
     </row>
   </sheetData>
@@ -439,10 +604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4837C2C3-1B84-4C22-B8D3-9C9425AD3B2C}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C39"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -456,6 +621,171 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>76.25</v>
+      </c>
+      <c r="B2">
+        <v>73.684200000000004</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>76.875</v>
+      </c>
+      <c r="B4">
+        <v>78.666700000000006</v>
+      </c>
+      <c r="C4">
+        <v>75.2941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>73.75</v>
+      </c>
+      <c r="B6">
+        <v>68.918899999999994</v>
+      </c>
+      <c r="C6">
+        <v>77.906999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <v>78.205100000000002</v>
+      </c>
+      <c r="C8">
+        <v>71.9512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>78.75</v>
+      </c>
+      <c r="B10">
+        <v>79.487200000000001</v>
+      </c>
+      <c r="C10">
+        <v>78.0488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>78.75</v>
+      </c>
+      <c r="B15">
+        <v>78.947400000000002</v>
+      </c>
+      <c r="C15">
+        <v>78.571399999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>73.75</v>
+      </c>
+      <c r="B17">
+        <v>69.6203</v>
+      </c>
+      <c r="C17">
+        <v>77.777799999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>79.375</v>
+      </c>
+      <c r="B19">
+        <v>84.090900000000005</v>
+      </c>
+      <c r="C19">
+        <v>73.611099999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>74.375</v>
+      </c>
+      <c r="B21">
+        <v>72.7273</v>
+      </c>
+      <c r="C21">
+        <v>75.903599999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>76.875</v>
+      </c>
+      <c r="B23">
+        <v>76.25</v>
+      </c>
+      <c r="C23">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>78.75</v>
+      </c>
+      <c r="B28">
+        <v>78.0822</v>
+      </c>
+      <c r="C28">
+        <v>79.310299999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>76.875</v>
+      </c>
+      <c r="B30">
+        <v>73.9726</v>
+      </c>
+      <c r="C30">
+        <v>79.310299999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>82.5</v>
+      </c>
+      <c r="B32">
+        <v>82.715999999999994</v>
+      </c>
+      <c r="C32">
+        <v>82.278499999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>78.125</v>
+      </c>
+      <c r="B34">
+        <v>78.409099999999995</v>
+      </c>
+      <c r="C34">
+        <v>77.777799999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>74.375</v>
+      </c>
+      <c r="B36">
+        <v>72.941199999999995</v>
+      </c>
+      <c r="C36">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -466,10 +796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD53ACA-1FED-43C4-8F2D-4401038A9FD8}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C36"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -483,6 +813,171 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>86.25</v>
+      </c>
+      <c r="B2">
+        <v>89.7727</v>
+      </c>
+      <c r="C2">
+        <v>81.944400000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>88.75</v>
+      </c>
+      <c r="B4">
+        <v>86.747</v>
+      </c>
+      <c r="C4">
+        <v>90.909099999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>86.25</v>
+      </c>
+      <c r="B6">
+        <v>81.944400000000002</v>
+      </c>
+      <c r="C6">
+        <v>89.7727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>85.625</v>
+      </c>
+      <c r="B8">
+        <v>83.544300000000007</v>
+      </c>
+      <c r="C8">
+        <v>87.654300000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>86.875</v>
+      </c>
+      <c r="B10">
+        <v>83.333299999999994</v>
+      </c>
+      <c r="C10">
+        <v>90.243899999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>86.25</v>
+      </c>
+      <c r="B15">
+        <v>82.5</v>
+      </c>
+      <c r="C15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>88.75</v>
+      </c>
+      <c r="B17">
+        <v>85.365899999999996</v>
+      </c>
+      <c r="C17">
+        <v>92.307699999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>90.625</v>
+      </c>
+      <c r="B19">
+        <v>91.111099999999993</v>
+      </c>
+      <c r="C19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>88.125</v>
+      </c>
+      <c r="B21">
+        <v>80.263199999999998</v>
+      </c>
+      <c r="C21">
+        <v>95.238100000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>86.25</v>
+      </c>
+      <c r="B23">
+        <v>81.944400000000002</v>
+      </c>
+      <c r="C23">
+        <v>89.7727</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>87.5</v>
+      </c>
+      <c r="B28">
+        <v>86.486500000000007</v>
+      </c>
+      <c r="C28">
+        <v>88.372100000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>88.75</v>
+      </c>
+      <c r="B30">
+        <v>83.132499999999993</v>
+      </c>
+      <c r="C30">
+        <v>94.805199999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>88.75</v>
+      </c>
+      <c r="B32">
+        <v>88.607600000000005</v>
+      </c>
+      <c r="C32">
+        <v>88.888900000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>84.375</v>
+      </c>
+      <c r="B34">
+        <v>83.7209</v>
+      </c>
+      <c r="C34">
+        <v>85.135099999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>82.5</v>
+      </c>
+      <c r="B36">
+        <v>82.051299999999998</v>
+      </c>
+      <c r="C36">
+        <v>82.9268</v>
       </c>
     </row>
   </sheetData>
@@ -493,10 +988,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898333BC-83D1-4F92-82BD-857285C19C04}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C36"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -510,6 +1005,171 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>78.75</v>
+      </c>
+      <c r="B2">
+        <v>81.25</v>
+      </c>
+      <c r="C2">
+        <v>76.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>83.125</v>
+      </c>
+      <c r="B4">
+        <v>87.837800000000001</v>
+      </c>
+      <c r="C4">
+        <v>79.069800000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>83.125</v>
+      </c>
+      <c r="B6">
+        <v>75.324700000000007</v>
+      </c>
+      <c r="C6">
+        <v>90.361400000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>86.25</v>
+      </c>
+      <c r="B8">
+        <v>85.882400000000004</v>
+      </c>
+      <c r="C8">
+        <v>86.666700000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>81.25</v>
+      </c>
+      <c r="B10">
+        <v>79.761899999999997</v>
+      </c>
+      <c r="C10">
+        <v>82.8947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>81.875</v>
+      </c>
+      <c r="B15">
+        <v>83.333299999999994</v>
+      </c>
+      <c r="C15">
+        <v>80.487799999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>81.25</v>
+      </c>
+      <c r="B17">
+        <v>74.025999999999996</v>
+      </c>
+      <c r="C17">
+        <v>87.951800000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>82.5</v>
+      </c>
+      <c r="B19">
+        <v>79.545500000000004</v>
+      </c>
+      <c r="C19">
+        <v>86.111099999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>81.25</v>
+      </c>
+      <c r="B21">
+        <v>83.529399999999995</v>
+      </c>
+      <c r="C21">
+        <v>78.666700000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>78.125</v>
+      </c>
+      <c r="B23">
+        <v>75</v>
+      </c>
+      <c r="C23">
+        <v>80.681799999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>78.125</v>
+      </c>
+      <c r="B28">
+        <v>76.829300000000003</v>
+      </c>
+      <c r="C28">
+        <v>79.487200000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>84.375</v>
+      </c>
+      <c r="B30">
+        <v>89.010999999999996</v>
+      </c>
+      <c r="C30">
+        <v>78.260900000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>78.125</v>
+      </c>
+      <c r="B32">
+        <v>76.056299999999993</v>
+      </c>
+      <c r="C32">
+        <v>79.775300000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>80</v>
+      </c>
+      <c r="B34">
+        <v>72.839500000000001</v>
+      </c>
+      <c r="C34">
+        <v>87.341800000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>79.375</v>
+      </c>
+      <c r="B36">
+        <v>78.666700000000006</v>
+      </c>
+      <c r="C36">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -520,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E3CE9D-1C90-42BD-9092-D459D056071D}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C36"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -537,6 +1197,171 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>90</v>
+      </c>
+      <c r="B2">
+        <v>88.636399999999995</v>
+      </c>
+      <c r="C2">
+        <v>91.666700000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>88.125</v>
+      </c>
+      <c r="B4">
+        <v>92.592600000000004</v>
+      </c>
+      <c r="C4">
+        <v>83.544300000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>88.75</v>
+      </c>
+      <c r="B6">
+        <v>83.544300000000007</v>
+      </c>
+      <c r="C6">
+        <v>93.827200000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>88.125</v>
+      </c>
+      <c r="B8">
+        <v>82.278499999999994</v>
+      </c>
+      <c r="C8">
+        <v>93.827200000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>89.375</v>
+      </c>
+      <c r="B10">
+        <v>91.780799999999999</v>
+      </c>
+      <c r="C10">
+        <v>87.356300000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>90</v>
+      </c>
+      <c r="B15">
+        <v>86.904799999999994</v>
+      </c>
+      <c r="C15">
+        <v>93.421099999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>86.875</v>
+      </c>
+      <c r="B17">
+        <v>87.837800000000001</v>
+      </c>
+      <c r="C17">
+        <v>86.046499999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>91.875</v>
+      </c>
+      <c r="B19">
+        <v>93.9024</v>
+      </c>
+      <c r="C19">
+        <v>89.743600000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>88.75</v>
+      </c>
+      <c r="B21">
+        <v>87.671199999999999</v>
+      </c>
+      <c r="C21">
+        <v>89.655199999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>86.25</v>
+      </c>
+      <c r="B23">
+        <v>86.206900000000005</v>
+      </c>
+      <c r="C23">
+        <v>86.301400000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>91.25</v>
+      </c>
+      <c r="B28">
+        <v>90.789500000000004</v>
+      </c>
+      <c r="C28">
+        <v>91.666700000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>86.875</v>
+      </c>
+      <c r="B30">
+        <v>83.333299999999994</v>
+      </c>
+      <c r="C30">
+        <v>91.428600000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>91.25</v>
+      </c>
+      <c r="B32">
+        <v>97.260300000000001</v>
+      </c>
+      <c r="C32">
+        <v>86.206900000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>90.625</v>
+      </c>
+      <c r="B34">
+        <v>89.743600000000001</v>
+      </c>
+      <c r="C34">
+        <v>91.463399999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>90</v>
+      </c>
+      <c r="B36">
+        <v>85.542199999999994</v>
+      </c>
+      <c r="C36">
+        <v>94.805199999999999</v>
       </c>
     </row>
   </sheetData>
@@ -547,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A562E27-B45C-46E2-9464-03AA66576402}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -566,6 +1391,171 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>98.75</v>
+      </c>
+      <c r="B6">
+        <v>98.75</v>
+      </c>
+      <c r="C6">
+        <v>98.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>99.375</v>
+      </c>
+      <c r="B8">
+        <v>98.8095</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>99.375</v>
+      </c>
+      <c r="B10">
+        <v>98.571399999999997</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>99.375</v>
+      </c>
+      <c r="B15">
+        <v>98.795199999999994</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>98.75</v>
+      </c>
+      <c r="B17">
+        <v>98.684200000000004</v>
+      </c>
+      <c r="C17">
+        <v>98.8095</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>99.375</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>98.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>99.375</v>
+      </c>
+      <c r="B21">
+        <v>98.837199999999996</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>100</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>100</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>98.75</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>99.375</v>
+      </c>
+      <c r="B32">
+        <v>98.7179</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>98.75</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>97.333299999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>99.375</v>
+      </c>
+      <c r="B36">
+        <v>98.591499999999996</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/结果/DT分类/标准差/DT_BE_biaozhuncha.xlsx
+++ b/结果/DT分类/标准差/DT_BE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\DT分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4796A6-9153-4D24-80AB-4C2E568416F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6680B56-D35E-445F-B67D-CE4E28C66246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11016" yWindow="2376" windowWidth="19668" windowHeight="9708" firstSheet="2" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="BE_biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="BE_biaozhuncha_d3" sheetId="4" r:id="rId4"/>
     <sheet name="BE_biaozhuncha_d4" sheetId="5" r:id="rId5"/>
     <sheet name="BE_biaozhuncha_d5" sheetId="6" r:id="rId6"/>
+    <sheet name="BE_bzc_multi_attri" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1374,7 +1375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A562E27-B45C-46E2-9464-03AA66576402}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
@@ -1560,4 +1561,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9148A6EB-9B86-4EDD-A9A5-2E1D05948983}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/结果/DT分类/标准差/DT_BE_biaozhuncha.xlsx
+++ b/结果/DT分类/标准差/DT_BE_biaozhuncha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\DT分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6680B56-D35E-445F-B67D-CE4E28C66246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E539AF5-955A-4E15-8DF5-06DB08772288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="3060" yWindow="2052" windowWidth="19668" windowHeight="9792" tabRatio="783" firstSheet="2" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="BE_biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1565,15 +1577,193 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9148A6EB-9B86-4EDD-A9A5-2E1D05948983}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>99.375</v>
+      </c>
+      <c r="B6">
+        <v>98.912999999999997</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>98.75</v>
+      </c>
+      <c r="B8">
+        <v>98.8095</v>
+      </c>
+      <c r="C8">
+        <v>98.684200000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>98.125</v>
+      </c>
+      <c r="B15">
+        <v>96.511600000000001</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>99.375</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>98.666700000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>98.75</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>97.674400000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>99.375</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>98.666700000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>97.5</v>
+      </c>
+      <c r="B30">
+        <v>96.25</v>
+      </c>
+      <c r="C30">
+        <v>98.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/结果/DT分类/标准差/DT_BE_biaozhuncha.xlsx
+++ b/结果/DT分类/标准差/DT_BE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\DT分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E539AF5-955A-4E15-8DF5-06DB08772288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660418CC-3878-487A-8B6B-6E89D334C5F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="2052" windowWidth="19668" windowHeight="9792" tabRatio="783" firstSheet="2" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="13980" yWindow="0" windowWidth="13620" windowHeight="12360" tabRatio="783" firstSheet="4" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="BE_biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +78,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -106,8 +115,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4741E87B-C3D3-4C4C-BF4E-36BCF345D7CA}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -606,6 +618,20 @@
       </c>
       <c r="C36">
         <v>98.7654</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>95.208333333333329</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>94.553633333333337</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>95.866540000000015</v>
       </c>
     </row>
   </sheetData>
@@ -617,10 +643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4837C2C3-1B84-4C22-B8D3-9C9425AD3B2C}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -799,6 +825,20 @@
       </c>
       <c r="C36">
         <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>76.958333333333329</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>76.447940000000017</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>77.416126666666671</v>
       </c>
     </row>
   </sheetData>
@@ -809,10 +849,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD53ACA-1FED-43C4-8F2D-4401038A9FD8}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -991,6 +1031,20 @@
       </c>
       <c r="C36">
         <v>82.9268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>87.041666666666671</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>84.701673333333332</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>89.198066666666648</v>
       </c>
     </row>
   </sheetData>
@@ -1001,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898333BC-83D1-4F92-82BD-857285C19C04}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1183,6 +1237,20 @@
       </c>
       <c r="C36">
         <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <f t="shared" ref="A38:C38" si="0">AVERAGE(A2:A37)</f>
+        <v>81.166666666666671</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>79.926253333333335</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>82.267133333333319</v>
       </c>
     </row>
   </sheetData>
@@ -1193,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E3CE9D-1C90-42BD-9092-D459D056071D}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1375,6 +1443,20 @@
       </c>
       <c r="C36">
         <v>94.805199999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <f t="shared" ref="A38:C38" si="0">AVERAGE(A2:A37)</f>
+        <v>89.208333333333329</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>88.534973333333326</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>90.064020000000014</v>
       </c>
     </row>
   </sheetData>
@@ -1385,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A562E27-B45C-46E2-9464-03AA66576402}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1567,6 +1649,20 @@
       </c>
       <c r="C36">
         <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>99.375</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>99.317126666666667</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>99.409519999999986</v>
       </c>
     </row>
   </sheetData>
@@ -1577,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9148A6EB-9B86-4EDD-A9A5-2E1D05948983}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1761,6 +1857,20 @@
         <v>100</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <f t="shared" ref="A38:C38" si="0">AVERAGE(A2:A37)</f>
+        <v>99.416666666666671</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>99.365606666666679</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>99.496133333333333</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
